--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H2">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I2">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J2">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.7507086362996</v>
+        <v>7.818077</v>
       </c>
       <c r="N2">
-        <v>7.7507086362996</v>
+        <v>23.454231</v>
       </c>
       <c r="O2">
-        <v>0.1853980253931556</v>
+        <v>0.1819018824829088</v>
       </c>
       <c r="P2">
-        <v>0.1853980253931556</v>
+        <v>0.1819018824829088</v>
       </c>
       <c r="Q2">
-        <v>14.18605529884845</v>
+        <v>17.134113189354</v>
       </c>
       <c r="R2">
-        <v>14.18605529884845</v>
+        <v>154.207018704186</v>
       </c>
       <c r="S2">
-        <v>0.01236624890123734</v>
+        <v>0.01396026185541388</v>
       </c>
       <c r="T2">
-        <v>0.01236624890123734</v>
+        <v>0.01396026185541388</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H3">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I3">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J3">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.9909473349292</v>
+        <v>22.011801</v>
       </c>
       <c r="N3">
-        <v>21.9909473349292</v>
+        <v>66.035403</v>
       </c>
       <c r="O3">
-        <v>0.5260265097988847</v>
+        <v>0.5121448712693895</v>
       </c>
       <c r="P3">
-        <v>0.5260265097988847</v>
+        <v>0.5121448712693895</v>
       </c>
       <c r="Q3">
-        <v>40.24984160884548</v>
+        <v>48.241107095202</v>
       </c>
       <c r="R3">
-        <v>40.24984160884548</v>
+        <v>434.1699638568181</v>
       </c>
       <c r="S3">
-        <v>0.03508653738370569</v>
+        <v>0.03930512655084634</v>
       </c>
       <c r="T3">
-        <v>0.03508653738370569</v>
+        <v>0.03930512655084634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H4">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I4">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J4">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.09693657671356</v>
+        <v>4.594576333333333</v>
       </c>
       <c r="N4">
-        <v>4.09693657671356</v>
+        <v>13.783729</v>
       </c>
       <c r="O4">
-        <v>0.09799929104886662</v>
+        <v>0.1069012346955337</v>
       </c>
       <c r="P4">
-        <v>0.09799929104886662</v>
+        <v>0.1069012346955337</v>
       </c>
       <c r="Q4">
-        <v>7.498587749891372</v>
+        <v>10.069482681286</v>
       </c>
       <c r="R4">
-        <v>7.498587749891372</v>
+        <v>90.62534413157401</v>
       </c>
       <c r="S4">
-        <v>0.006536658751813356</v>
+        <v>0.008204253901313673</v>
       </c>
       <c r="T4">
-        <v>0.006536658751813356</v>
+        <v>0.008204253901313676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H5">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I5">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J5">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.967185155803</v>
+        <v>8.555183333333334</v>
       </c>
       <c r="N5">
-        <v>7.967185155803</v>
+        <v>25.66555</v>
       </c>
       <c r="O5">
-        <v>0.1905761737590932</v>
+        <v>0.1990520115521681</v>
       </c>
       <c r="P5">
-        <v>0.1905761737590932</v>
+        <v>0.1990520115521681</v>
       </c>
       <c r="Q5">
-        <v>14.58227040906367</v>
+        <v>18.7495569037</v>
       </c>
       <c r="R5">
-        <v>14.58227040906367</v>
+        <v>168.7460121333</v>
       </c>
       <c r="S5">
-        <v>0.01271163700019324</v>
+        <v>0.01527646754494819</v>
       </c>
       <c r="T5">
-        <v>0.01271163700019324</v>
+        <v>0.01527646754494819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H6">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I6">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J6">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.7507086362996</v>
+        <v>7.818077</v>
       </c>
       <c r="N6">
-        <v>7.7507086362996</v>
+        <v>23.454231</v>
       </c>
       <c r="O6">
-        <v>0.1853980253931556</v>
+        <v>0.1819018824829088</v>
       </c>
       <c r="P6">
-        <v>0.1853980253931556</v>
+        <v>0.1819018824829088</v>
       </c>
       <c r="Q6">
-        <v>128.3231233867791</v>
+        <v>129.7395232285753</v>
       </c>
       <c r="R6">
-        <v>128.3231233867791</v>
+        <v>1167.655709057178</v>
       </c>
       <c r="S6">
-        <v>0.1118616592248809</v>
+        <v>0.1057071175643231</v>
       </c>
       <c r="T6">
-        <v>0.1118616592248809</v>
+        <v>0.1057071175643231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H7">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I7">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J7">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.9909473349292</v>
+        <v>22.011801</v>
       </c>
       <c r="N7">
-        <v>21.9909473349292</v>
+        <v>66.035403</v>
       </c>
       <c r="O7">
-        <v>0.5260265097988847</v>
+        <v>0.5121448712693895</v>
       </c>
       <c r="P7">
-        <v>0.5260265097988847</v>
+        <v>0.5121448712693895</v>
       </c>
       <c r="Q7">
-        <v>364.0889085981119</v>
+        <v>365.281714050946</v>
       </c>
       <c r="R7">
-        <v>364.0889085981119</v>
+        <v>3287.535426458514</v>
       </c>
       <c r="S7">
-        <v>0.31738309001725</v>
+        <v>0.2976184598987048</v>
       </c>
       <c r="T7">
-        <v>0.31738309001725</v>
+        <v>0.2976184598987047</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H8">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I8">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J8">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.09693657671356</v>
+        <v>4.594576333333333</v>
       </c>
       <c r="N8">
-        <v>4.09693657671356</v>
+        <v>13.783729</v>
       </c>
       <c r="O8">
-        <v>0.09799929104886662</v>
+        <v>0.1069012346955337</v>
       </c>
       <c r="P8">
-        <v>0.09799929104886662</v>
+        <v>0.1069012346955337</v>
       </c>
       <c r="Q8">
-        <v>67.83014592745953</v>
+        <v>76.24613353436689</v>
       </c>
       <c r="R8">
-        <v>67.83014592745953</v>
+        <v>686.215201809302</v>
       </c>
       <c r="S8">
-        <v>0.05912880288957457</v>
+        <v>0.06212261923564112</v>
       </c>
       <c r="T8">
-        <v>0.05912880288957457</v>
+        <v>0.06212261923564112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H9">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I9">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J9">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.967185155803</v>
+        <v>8.555183333333334</v>
       </c>
       <c r="N9">
-        <v>7.967185155803</v>
+        <v>25.66555</v>
       </c>
       <c r="O9">
-        <v>0.1905761737590932</v>
+        <v>0.1990520115521681</v>
       </c>
       <c r="P9">
-        <v>0.1905761737590932</v>
+        <v>0.1990520115521681</v>
       </c>
       <c r="Q9">
-        <v>131.9071754297724</v>
+        <v>141.9716647456555</v>
       </c>
       <c r="R9">
-        <v>131.9071754297724</v>
+        <v>1277.7449827109</v>
       </c>
       <c r="S9">
-        <v>0.1149859442149613</v>
+        <v>0.1156734284403958</v>
       </c>
       <c r="T9">
-        <v>0.1149859442149613</v>
+        <v>0.1156734284403958</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.05360550115793</v>
+        <v>9.770107666666666</v>
       </c>
       <c r="H10">
-        <v>9.05360550115793</v>
+        <v>29.310323</v>
       </c>
       <c r="I10">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="J10">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.7507086362996</v>
+        <v>7.818077</v>
       </c>
       <c r="N10">
-        <v>7.7507086362996</v>
+        <v>23.454231</v>
       </c>
       <c r="O10">
-        <v>0.1853980253931556</v>
+        <v>0.1819018824829088</v>
       </c>
       <c r="P10">
-        <v>0.1853980253931556</v>
+        <v>0.1819018824829088</v>
       </c>
       <c r="Q10">
-        <v>70.17185834747434</v>
+        <v>76.38345403629033</v>
       </c>
       <c r="R10">
-        <v>70.17185834747434</v>
+        <v>687.4510863266129</v>
       </c>
       <c r="S10">
-        <v>0.0611701172670374</v>
+        <v>0.06223450306317176</v>
       </c>
       <c r="T10">
-        <v>0.0611701172670374</v>
+        <v>0.06223450306317176</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.05360550115793</v>
+        <v>9.770107666666666</v>
       </c>
       <c r="H11">
-        <v>9.05360550115793</v>
+        <v>29.310323</v>
       </c>
       <c r="I11">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="J11">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.9909473349292</v>
+        <v>22.011801</v>
       </c>
       <c r="N11">
-        <v>21.9909473349292</v>
+        <v>66.035403</v>
       </c>
       <c r="O11">
-        <v>0.5260265097988847</v>
+        <v>0.5121448712693895</v>
       </c>
       <c r="P11">
-        <v>0.5260265097988847</v>
+        <v>0.5121448712693895</v>
       </c>
       <c r="Q11">
-        <v>199.0973617671893</v>
+        <v>215.057665707241</v>
       </c>
       <c r="R11">
-        <v>199.0973617671893</v>
+        <v>1935.518991365169</v>
       </c>
       <c r="S11">
-        <v>0.173556882397929</v>
+        <v>0.1752212848198383</v>
       </c>
       <c r="T11">
-        <v>0.173556882397929</v>
+        <v>0.1752212848198383</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.05360550115793</v>
+        <v>9.770107666666666</v>
       </c>
       <c r="H12">
-        <v>9.05360550115793</v>
+        <v>29.310323</v>
       </c>
       <c r="I12">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="J12">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.09693657671356</v>
+        <v>4.594576333333333</v>
       </c>
       <c r="N12">
-        <v>4.09693657671356</v>
+        <v>13.783729</v>
       </c>
       <c r="O12">
-        <v>0.09799929104886662</v>
+        <v>0.1069012346955337</v>
       </c>
       <c r="P12">
-        <v>0.09799929104886662</v>
+        <v>0.1069012346955337</v>
       </c>
       <c r="Q12">
-        <v>37.09204752882903</v>
+        <v>44.88950545938522</v>
       </c>
       <c r="R12">
-        <v>37.09204752882903</v>
+        <v>404.005549134467</v>
       </c>
       <c r="S12">
-        <v>0.03233382940747871</v>
+        <v>0.03657436155857889</v>
       </c>
       <c r="T12">
-        <v>0.03233382940747871</v>
+        <v>0.0365743615585789</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.05360550115793</v>
+        <v>9.770107666666666</v>
       </c>
       <c r="H13">
-        <v>9.05360550115793</v>
+        <v>29.310323</v>
       </c>
       <c r="I13">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="J13">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.967185155803</v>
+        <v>8.555183333333334</v>
       </c>
       <c r="N13">
-        <v>7.967185155803</v>
+        <v>25.66555</v>
       </c>
       <c r="O13">
-        <v>0.1905761737590932</v>
+        <v>0.1990520115521681</v>
       </c>
       <c r="P13">
-        <v>0.1905761737590932</v>
+        <v>0.1990520115521681</v>
       </c>
       <c r="Q13">
-        <v>72.13175135532184</v>
+        <v>83.58506227473889</v>
       </c>
       <c r="R13">
-        <v>72.13175135532184</v>
+        <v>752.2655604726499</v>
       </c>
       <c r="S13">
-        <v>0.06287859254393867</v>
+        <v>0.06810211556682408</v>
       </c>
       <c r="T13">
-        <v>0.06287859254393867</v>
+        <v>0.06810211556682409</v>
       </c>
     </row>
   </sheetData>
